--- a/biology/Biochimie/Ubiquinol_oxydase/Ubiquinol_oxydase.xlsx
+++ b/biology/Biochimie/Ubiquinol_oxydase/Ubiquinol_oxydase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une ubiquinol oxydase est une oxydoréductase de la chaîne respiratoire de certaines cellules dont on connaît deux variantes :
-l'ubiquinol oxydase transportant H+ (EC 1.10.3.10), présente chez des bactéries[1] ;
-l'ubiquinol oxydase non électrogène (EC 1.10.3.11), ou oxydase alternative (AOX), présente dans les mitochondries d'eucaryotes tels que des plantes[2], des mycètes et des protistes.
-Seule la première de ces deux enzymes participe à la génération d'un gradient de concentration de protons à travers la membrane biologique dans laquelle la chaîne respiratoire est localisée[3], contribuant à la phosphorylation de l'ADP en ATP par l'ATP synthase dans le cadre de la phosphorylation oxydative.
+l'ubiquinol oxydase transportant H+ (EC 1.10.3.10), présente chez des bactéries ;
+l'ubiquinol oxydase non électrogène (EC 1.10.3.11), ou oxydase alternative (AOX), présente dans les mitochondries d'eucaryotes tels que des plantes, des mycètes et des protistes.
+Seule la première de ces deux enzymes participe à la génération d'un gradient de concentration de protons à travers la membrane biologique dans laquelle la chaîne respiratoire est localisée, contribuant à la phosphorylation de l'ADP en ATP par l'ATP synthase dans le cadre de la phosphorylation oxydative.
 </t>
         </is>
       </c>
